--- a/myapp/files/9_MethodComparePercent/Scenario 343.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 343.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5476</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.88267200095424</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>9453</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.52372140705267</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6716</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.08254659576492</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4056</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.653783352058144</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.023050054078973</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5994</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.966168001044506</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>16353</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.63592681366046</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>477</v>
+        <v>19040</v>
       </c>
       <c r="F9" t="n">
-        <v>0.612268473949709</v>
+        <v>3.06904216548005</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>2.32558139534884</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>3560</v>
+        <v>22931</v>
       </c>
       <c r="F10" t="n">
-        <v>4.56955087476093</v>
+        <v>3.69622930129322</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>4.65116279069767</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>490</v>
+        <v>3961</v>
       </c>
       <c r="F11" t="n">
-        <v>0.628955036132825</v>
+        <v>0.638470379068617</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.32558139534884</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>4228</v>
+        <v>13842</v>
       </c>
       <c r="F12" t="n">
-        <v>5.4269834546318</v>
+        <v>2.23118075916884</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>4.65116279069767</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6948</v>
+        <v>38554</v>
       </c>
       <c r="F13" t="n">
-        <v>8.91832569602218</v>
+        <v>6.21448800671837</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>4.65116279069767</v>
+        <v>6.33333333333333</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9196</v>
+        <v>67527</v>
       </c>
       <c r="F14" t="n">
-        <v>11.8038173719948</v>
+        <v>10.8846223901455</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -1049,10 +1049,10 @@
         <v>13.0434782608696</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>16.2790697674419</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7781</v>
+        <v>50916</v>
       </c>
       <c r="F15" t="n">
-        <v>9.98754925744798</v>
+        <v>8.20710876562931</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1087,10 +1087,10 @@
         <v>8.69565217391304</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>9.30232558139535</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
         <v>8</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>2854</v>
+        <v>8269</v>
       </c>
       <c r="F16" t="n">
-        <v>3.66334219004711</v>
+        <v>1.33287340684635</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.65116279069767</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>20641</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3.32710605765093</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1163,10 +1163,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1862</v>
+        <v>56064</v>
       </c>
       <c r="F18" t="n">
-        <v>2.39002913730474</v>
+        <v>9.03691071247234</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J18" t="n">
-        <v>2.32558139534884</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
         <v>9</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>70825</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0770149023836112</v>
+        <v>11.4162243366662</v>
       </c>
       <c r="G19" t="n">
         <v>22</v>
@@ -1239,10 +1239,10 @@
         <v>31.8840579710145</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J19" t="n">
-        <v>2.32558139534884</v>
+        <v>9.33333333333333</v>
       </c>
       <c r="K19" t="n">
         <v>7</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2226</v>
+        <v>48774</v>
       </c>
       <c r="F20" t="n">
-        <v>2.85725287843198</v>
+        <v>7.8618415220128</v>
       </c>
       <c r="G20" t="n">
         <v>13</v>
@@ -1277,10 +1277,10 @@
         <v>18.8405797101449</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>9.30232558139535</v>
+        <v>9.66666666666667</v>
       </c>
       <c r="K20" t="n">
         <v>8</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>452</v>
+        <v>12676</v>
       </c>
       <c r="F21" t="n">
-        <v>0.580178931289871</v>
+        <v>2.04323416437106</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>4.65116279069767</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>3174</v>
+        <v>14153</v>
       </c>
       <c r="F22" t="n">
-        <v>4.07408833609303</v>
+        <v>2.28131059706088</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>2.32558139534884</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3726</v>
+        <v>23045</v>
       </c>
       <c r="F23" t="n">
-        <v>4.78262543802226</v>
+        <v>3.71460486888065</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>2.32558139534884</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>5259</v>
+        <v>29662</v>
       </c>
       <c r="F24" t="n">
-        <v>6.75035619392352</v>
+        <v>4.78119373489859</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -1429,10 +1429,10 @@
         <v>7.2463768115942</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J24" t="n">
-        <v>6.97674418604651</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>12850</v>
+        <v>39753</v>
       </c>
       <c r="F25" t="n">
-        <v>16.4940249271567</v>
+        <v>6.40775384476514</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1467,10 +1467,10 @@
         <v>7.2463768115942</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J25" t="n">
-        <v>11.6279069767442</v>
+        <v>6.33333333333333</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>12764</v>
+        <v>31565</v>
       </c>
       <c r="F26" t="n">
-        <v>16.3836369004069</v>
+        <v>5.08793676225723</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>9.30232558139535</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
